--- a/KewordDrivenFrameWork2023/src/dataEngine/DataEngine.xlsx
+++ b/KewordDrivenFrameWork2023/src/dataEngine/DataEngine.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="88">
   <si>
     <t>TestCase ID</t>
   </si>

--- a/KewordDrivenFrameWork2023/src/dataEngine/DataEngine.xlsx
+++ b/KewordDrivenFrameWork2023/src/dataEngine/DataEngine.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="88">
   <si>
     <t>TestCase ID</t>
   </si>
